--- a/Tools/ConfigDataExpoter/Design/Language/CN/Test_CN.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Language/CN/Test_CN.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">ConfigPP</t>
   </si>
   <si>
-    <t xml:space="preserve">0_nesttt.name_0</t>
+    <t xml:space="preserve">0.nesttt.name.0..0</t>
   </si>
   <si>
     <t xml:space="preserve">jksjda</t>
@@ -32,46 +32,46 @@
     <t xml:space="preserve">hola</t>
   </si>
   <si>
-    <t xml:space="preserve">0_comment_0</t>
+    <t xml:space="preserve">0.comment.0..0</t>
   </si>
   <si>
     <t xml:space="preserve">Jack</t>
   </si>
   <si>
-    <t xml:space="preserve">0_comment_1</t>
+    <t xml:space="preserve">0.comment.1..0</t>
   </si>
   <si>
     <t xml:space="preserve">Loli</t>
   </si>
   <si>
-    <t xml:space="preserve">1_nesttt.name_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_comment_0</t>
+    <t xml:space="preserve">1.nesttt.name.0..0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.comment.0..0</t>
   </si>
   <si>
     <t xml:space="preserve">Mack</t>
   </si>
   <si>
-    <t xml:space="preserve">1_comment_1</t>
+    <t xml:space="preserve">1.comment.1..0</t>
   </si>
   <si>
     <t xml:space="preserve">Khan</t>
   </si>
   <si>
-    <t xml:space="preserve">2_nesttt.name_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_comment_0</t>
+    <t xml:space="preserve">2.nesttt.name.0..0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.comment.0..0</t>
   </si>
   <si>
     <t xml:space="preserve">Ruby</t>
   </si>
   <si>
-    <t xml:space="preserve">3_nesttt.name_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3_comment_0</t>
+    <t xml:space="preserve">3.nesttt.name.0..0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.comment.0..0</t>
   </si>
   <si>
     <t xml:space="preserve">Hola</t>

--- a/Tools/ConfigDataExpoter/Design/Language/CN/Test_CN.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Language/CN/Test_CN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">MutiLanguage</t>
   </si>
@@ -20,61 +20,148 @@
     <t xml:space="preserve">ConfigPP</t>
   </si>
   <si>
-    <t xml:space="preserve">0.nesttt.name.0..0</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SourceText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TranslateText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SourceInfoStr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">jksjda</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">杰斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-0-nesttt-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">hola</t>
   </si>
   <si>
-    <t xml:space="preserve">0.comment.0..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.comment.1..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.nesttt.name.0..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.comment.0..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.comment.1..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.nesttt.name.0..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.comment.0..0</t>
+    <t xml:space="preserve">杰克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-0-nesttt-0--1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack";"Loli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-0-comment-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗勒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-0-comment-1--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本杰明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-1-nesttt-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿斯顿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-1-nesttt-0--1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mack";"Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿萨德</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-1-comment-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿斯达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-1-comment-1--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爱仕达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-2-nesttt-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潍坊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-2-nesttt-0--1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">Ruby</t>
   </si>
   <si>
-    <t xml:space="preserve">3.nesttt.name.0..0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.comment.0..0</t>
+    <t xml:space="preserve">ConfigPP-2-comment-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-3-nesttt-0--0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-3-nesttt-0--1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">Hola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-3-comment-0--0</t>
   </si>
 </sst>
 </file>
@@ -145,148 +232,204 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ConfigDataExpoter/Design/Language/CN/Test_CN.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Language/CN/Test_CN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t xml:space="preserve">MutiLanguage</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">SourceInfoStr</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">jksjda</t>
@@ -41,10 +41,10 @@
     <t xml:space="preserve">杰斯</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-0-nesttt-0--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">ConfigPP-0-nesttt-0-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">hola</t>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">杰克</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-0-nesttt-0--1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack";"Loli</t>
+    <t xml:space="preserve">ConfigPP-0-nesttt-1-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack</t>
   </si>
   <si>
     <t xml:space="preserve">罗斯</t>
@@ -68,7 +68,10 @@
     <t xml:space="preserve">ConfigPP-0-comment-0--0</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loli</t>
   </si>
   <si>
     <t xml:space="preserve">罗勒</t>
@@ -77,28 +80,28 @@
     <t xml:space="preserve">ConfigPP-0-comment-1--0</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">本杰明</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-1-nesttt-0--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">ConfigPP-1-nesttt-0-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">阿斯顿</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-1-nesttt-0--1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mack";"Khan</t>
+    <t xml:space="preserve">ConfigPP-1-nesttt-1-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mack</t>
   </si>
   <si>
     <t xml:space="preserve">阿萨德</t>
@@ -107,7 +110,10 @@
     <t xml:space="preserve">ConfigPP-1-comment-0--0</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khan</t>
   </si>
   <si>
     <t xml:space="preserve">阿斯达</t>
@@ -116,25 +122,25 @@
     <t xml:space="preserve">ConfigPP-1-comment-1--0</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">爱仕达</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-2-nesttt-0--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">ConfigPP-2-nesttt-0-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">潍坊</t>
   </si>
   <si>
-    <t xml:space="preserve">ConfigPP-2-nesttt-0--1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">ConfigPP-2-nesttt-1-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Ruby</t>
@@ -143,19 +149,19 @@
     <t xml:space="preserve">ConfigPP-2-comment-0--0</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-3-nesttt-0--0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigPP-3-nesttt-0--1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-3-nesttt-0-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigPP-3-nesttt-1-name-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">Hola</t>
@@ -283,153 +289,153 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
